--- a/biology/Zoologie/Emys/Emys.xlsx
+++ b/biology/Zoologie/Emys/Emys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emys est un genre de tortues de la famille des Emydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emys est un genre de tortues de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe et en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (9 juin 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (9 juin 2011) :
 Emys orbicularis (Linnaeus, 1758)
 Emys trinacris Fritz, Fattizzo, Guicking, Tripepi, Pennisi, Lenk, Joger &amp; Wink, 2005
-Selon Catalogue of Life                                   (15 aout 2023)[3] :
+Selon Catalogue of Life                                   (15 aout 2023) :
 Emys blandingii (Holbrook, 1838) - syn. Emydoidea blandingii (Holbrook, 1838)
 Emys orbicularis (Linnaeus, 1758)
 Emys trinacris Fritz, Fattizzo, Guicking, Tripepi, Pennisi, Lenk, Joger &amp; Wink, 2005</t>
@@ -578,9 +594,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La synonymie de Emydoidea avec Emys n'est pas reconnue par tous[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La synonymie de Emydoidea avec Emys n'est pas reconnue par tous.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril, 1805 : Zoologie analytique, ou méthode naturelle de classification des animaux, rendue plus facile à l'aide de tableaux synoptiques. Paris, p. 1-344 (texte intégral).</t>
         </is>
